--- a/MEF_BigData.xlsx
+++ b/MEF_BigData.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a93c472c5ae4b46/Dokumenty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="883" documentId="8_{AADDAB62-A065-4127-919F-0B5DD0FDD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D0EEF65-6397-4A20-82C7-35CB3D315083}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A248A57-B5EE-4967-9F1E-3AB2076CE47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB1381EF-A720-4EF3-9ABC-20ECDA63CB02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FB1381EF-A720-4EF3-9ABC-20ECDA63CB02}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 2" sheetId="1" r:id="rId1"/>
     <sheet name="Task 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$1:$C$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="149">
   <si>
     <t>PRODUCER A</t>
   </si>
@@ -165,6 +172,348 @@
   <si>
     <t>Autocorrelazione</t>
   </si>
+  <si>
+    <t>Popolazione residente per età e sesso al 1° gennaio 2025 (dati provvisori)</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>x-mu/sigma</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>STDDV</t>
+  </si>
+  <si>
+    <t>Codice provincia</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Bergamo</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Caserta</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Monza e della Brianza</t>
+  </si>
+  <si>
+    <t>Treviso</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Messina</t>
+  </si>
+  <si>
+    <t>Foggia</t>
+  </si>
+  <si>
+    <t>Cuneo</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>Pavia</t>
+  </si>
+  <si>
+    <t>Bolzano/Bozen</t>
+  </si>
+  <si>
+    <t>Reggio nell'Emilia</t>
+  </si>
+  <si>
+    <t>Udine</t>
+  </si>
+  <si>
+    <t>Reggio di Calabria</t>
+  </si>
+  <si>
+    <t>Sassari</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Trapani</t>
+  </si>
+  <si>
+    <t>Agrigento</t>
+  </si>
+  <si>
+    <t>Mantova</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Avellino</t>
+  </si>
+  <si>
+    <t>Forlì-Cesena</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>Siracusa</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Barletta-Andria-Trani</t>
+  </si>
+  <si>
+    <t>Brindisi</t>
+  </si>
+  <si>
+    <t>Chieti</t>
+  </si>
+  <si>
+    <t>Novara</t>
+  </si>
+  <si>
+    <t>Cremona</t>
+  </si>
+  <si>
+    <t>Pesaro e Urbino</t>
+  </si>
+  <si>
+    <t>Potenza</t>
+  </si>
+  <si>
+    <t>Rimini</t>
+  </si>
+  <si>
+    <t>Ferrara</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>Arezzo</t>
+  </si>
+  <si>
+    <t>Sud Sardegna</t>
+  </si>
+  <si>
+    <t>Livorno</t>
+  </si>
+  <si>
+    <t>Ragusa</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Viterbo</t>
+  </si>
+  <si>
+    <t>Macerata</t>
+  </si>
+  <si>
+    <t>Teramo</t>
+  </si>
+  <si>
+    <t>Pistoia</t>
+  </si>
+  <si>
+    <t>Piacenza</t>
+  </si>
+  <si>
+    <t>L'Aquila</t>
+  </si>
+  <si>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Prato</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Caltanissetta</t>
+  </si>
+  <si>
+    <t>Lodi</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>Rovigo</t>
+  </si>
+  <si>
+    <t>Terni</t>
+  </si>
+  <si>
+    <t>Grosseto</t>
+  </si>
+  <si>
+    <t>La Spezia</t>
+  </si>
+  <si>
+    <t>Campobasso</t>
+  </si>
+  <si>
+    <t>Imperia</t>
+  </si>
+  <si>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Ascoli Piceno</t>
+  </si>
+  <si>
+    <t>Belluno</t>
+  </si>
+  <si>
+    <t>Nuoro</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>Massa-Carrara</t>
+  </si>
+  <si>
+    <t>Sondrio</t>
+  </si>
+  <si>
+    <t>Biella</t>
+  </si>
+  <si>
+    <t>Fermo</t>
+  </si>
+  <si>
+    <t>Vercelli</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Verbano-Cusio-Ossola</t>
+  </si>
+  <si>
+    <t>Enna</t>
+  </si>
+  <si>
+    <t>Vibo Valentia</t>
+  </si>
+  <si>
+    <t>Rieti</t>
+  </si>
+  <si>
+    <t>Oristano</t>
+  </si>
+  <si>
+    <t>Gorizia</t>
+  </si>
+  <si>
+    <t>Valle d'Aosta/Vallée d'Aoste</t>
+  </si>
+  <si>
+    <t>Isernia</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +523,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +574,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -385,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -455,6 +810,10 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3523,6 +3882,1966 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:rPr>
+              <a:t>Popolazione con scala lineare</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>Roma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Milano</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Napoli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Torino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brescia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bari</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Palermo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bergamo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Catania</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Salerno</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bologna</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Firenze</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Padova</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Verona</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Caserta</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Varese</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monza e della Brianza</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Treviso</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Vicenza</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Venezia</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Genova</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lecce</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Modena</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cosenza</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Perugia</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Como</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Messina</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Foggia</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuneo</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Latina</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Taranto</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Trento</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Pavia</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Bolzano/Bozen</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Reggio nell'Emilia</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Udine</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Reggio di Calabria</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sassari</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Frosinone</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Ancona</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Parma</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Pisa</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Cagliari</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Trapani</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Agrigento</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Mantova</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Alessandria</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Avellino</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Forlì-Cesena</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Ravenna</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Siracusa</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Lucca</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Barletta-Andria-Trani</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Brindisi</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Chieti</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Novara</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Cremona</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Pesaro e Urbino</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Potenza</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Rimini</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Ferrara</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Catanzaro</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Lecco</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Arezzo</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sud Sardegna</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Livorno</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Ragusa</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Pescara</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Pordenone</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Viterbo</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Macerata</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Teramo</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Pistoia</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Piacenza</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>L'Aquila</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Savona</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Prato</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Siena</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Benevento</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Caltanissetta</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Lodi</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Trieste</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Rovigo</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Terni</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Grosseto</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>La Spezia</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Campobasso</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Imperia</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Asti</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Ascoli Piceno</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Belluno</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Nuoro</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Matera</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Massa-Carrara</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Sondrio</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Biella</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Fermo</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Vercelli</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Crotone</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Verbano-Cusio-Ossola</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Enna</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Vibo Valentia</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Rieti</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Oristano</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Gorizia</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Valle d'Aosta/Vallée d'Aoste</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Isernia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>4223885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3247623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2958410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2207873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1266138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1218191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1115037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1068563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1054766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1020865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>989460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>932704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>928907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>907442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>881907</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>879752</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>877565</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>854131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>833934</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>818651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>763778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>709149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>669239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>636531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>598333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>595948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>590304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>566671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>550046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>546709</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>542082</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>539386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>531113</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>516443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>511935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>471653</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>462363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>461645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>456015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>418561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>417079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>411396</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>408059</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>407312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>407029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>394759</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>393628</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>382690</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>380693</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>376561</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>375286</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>370127</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>364478</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>353995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>349798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>340799</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>340665</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>339999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>339297</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>333804</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>333646</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>329276</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325431</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>320976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>311826</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>310967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>307430</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>302309</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>299796</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>290036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>286743</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>286681</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>267119</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>261094</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>259826</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>259648</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>244913</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>230447</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>228049</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>227052</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>215423</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>215328</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>214986</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>209207</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>209152</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>207310</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>200400</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197558</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>195437</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>189098</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186759</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>179051</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>168257</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>167100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>165878</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>161479</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>153201</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>152387</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>150197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>149923</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>147894</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>138636</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>122714</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52BD-4F66-83BE-FB0A337B1FA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="991203335"/>
+        <c:axId val="991205383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="991203335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991205383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="991205383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991203335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:rPr>
+              <a:t>Popolazione con scala logarimica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$108</c:f>
+              <c:strCache>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>Roma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Milano</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Napoli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Torino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brescia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bari</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Palermo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bergamo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Catania</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Salerno</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bologna</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Firenze</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Padova</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Verona</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Caserta</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Varese</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monza e della Brianza</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Treviso</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Vicenza</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Venezia</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Genova</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lecce</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Modena</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cosenza</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Perugia</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Como</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Messina</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Foggia</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuneo</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Latina</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Taranto</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Trento</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Pavia</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Bolzano/Bozen</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Reggio nell'Emilia</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Udine</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Reggio di Calabria</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Sassari</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Frosinone</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Ancona</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Parma</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Pisa</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Cagliari</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Trapani</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Agrigento</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Mantova</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Alessandria</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Avellino</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Forlì-Cesena</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Ravenna</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Siracusa</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Lucca</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Barletta-Andria-Trani</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Brindisi</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Chieti</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Novara</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Cremona</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Pesaro e Urbino</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Potenza</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Rimini</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Ferrara</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Catanzaro</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Lecco</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Arezzo</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Sud Sardegna</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Livorno</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Ragusa</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Pescara</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Pordenone</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Viterbo</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Macerata</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Teramo</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Pistoia</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Piacenza</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>L'Aquila</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Savona</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Prato</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Siena</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Benevento</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Caltanissetta</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Lodi</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Trieste</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Rovigo</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Terni</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Grosseto</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>La Spezia</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Campobasso</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Imperia</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Asti</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Ascoli Piceno</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Belluno</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Nuoro</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Matera</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Massa-Carrara</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Sondrio</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Biella</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Fermo</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Vercelli</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Crotone</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Verbano-Cusio-Ossola</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Enna</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Vibo Valentia</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Rieti</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Oristano</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Gorizia</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Valle d'Aosta/Vallée d'Aoste</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Isernia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>4223885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3247623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2958410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2207873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1266138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1218191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1194439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1115037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1068563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1054766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1020865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>989460</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>932704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>928907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>907442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>881907</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>879752</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>877565</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>854131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>833934</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>818651</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>763778</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>709149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>669239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>636531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>598333</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>595948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>590304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>581676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>566671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>550046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>546709</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>542082</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>539386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>531113</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>516443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>511935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>471653</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>462363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>461645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>456015</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>418561</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>417079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>411396</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>408059</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>407312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>407029</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>394759</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>393628</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>387501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>382690</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>380693</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>376561</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>375286</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>370127</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>364478</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>353995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>349798</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>340799</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>340665</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>339999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>339297</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>333804</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>333646</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>329276</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>325431</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>320976</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>311826</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>310967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>307430</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>302309</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>299796</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>290036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>286743</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>286681</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>267119</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>261094</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>259826</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>259648</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>244913</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>230447</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>228049</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>227052</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>215423</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>215328</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>214986</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>209207</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>209152</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>207310</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>200400</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>197558</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>195437</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>189098</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186759</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>179051</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>168257</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>167100</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>165878</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>161479</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>153201</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>152387</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>150197</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>149923</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>147894</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>138636</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>122714</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>78759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C8D-4C79-8C41-AA0150F1577C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="991203335"/>
+        <c:axId val="991205383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="991203335"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991205383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="991205383"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000000"/>
+          <c:min val="50000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991203335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3593,6 +5912,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -6839,6 +9238,1012 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7069,8 +10474,1284 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B1463F-3799-4FF8-8BBB-904405CDB8E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D350C615-ADE4-43E8-B555-421C69707337}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B02C4F4C-9792-B774-1984-A78B2BE891A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1 (2)"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Roma</v>
+          </cell>
+          <cell r="C2">
+            <v>4223885</v>
+          </cell>
+          <cell r="D2">
+            <v>6.1146545221835806</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Milano</v>
+          </cell>
+          <cell r="C3">
+            <v>3247623</v>
+          </cell>
+          <cell r="D3">
+            <v>4.4894584704866078</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Napoli</v>
+          </cell>
+          <cell r="C4">
+            <v>2958410</v>
+          </cell>
+          <cell r="D4">
+            <v>4.0080018269836994</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Torino</v>
+          </cell>
+          <cell r="C5">
+            <v>2207873</v>
+          </cell>
+          <cell r="D5">
+            <v>2.7585731192674401</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Brescia</v>
+          </cell>
+          <cell r="C6">
+            <v>1266138</v>
+          </cell>
+          <cell r="D6">
+            <v>1.1908546136359108</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Bari</v>
+          </cell>
+          <cell r="C7">
+            <v>1218191</v>
+          </cell>
+          <cell r="D7">
+            <v>1.1110366189882499</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Palermo</v>
+          </cell>
+          <cell r="C8">
+            <v>1194439</v>
+          </cell>
+          <cell r="D8">
+            <v>1.0714963555959367</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Bergamo</v>
+          </cell>
+          <cell r="C9">
+            <v>1115037</v>
+          </cell>
+          <cell r="D9">
+            <v>0.9393148132468101</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Catania</v>
+          </cell>
+          <cell r="C10">
+            <v>1068563</v>
+          </cell>
+          <cell r="D10">
+            <v>0.86194894086156404</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Salerno</v>
+          </cell>
+          <cell r="C11">
+            <v>1054766</v>
+          </cell>
+          <cell r="D11">
+            <v>0.83898089547491261</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Bologna</v>
+          </cell>
+          <cell r="C12">
+            <v>1020865</v>
+          </cell>
+          <cell r="D12">
+            <v>0.7825454597531708</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Firenze</v>
+          </cell>
+          <cell r="C13">
+            <v>989460</v>
+          </cell>
+          <cell r="D13">
+            <v>0.73026514770216056</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Padova</v>
+          </cell>
+          <cell r="C14">
+            <v>932704</v>
+          </cell>
+          <cell r="D14">
+            <v>0.63578269615727467</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Verona</v>
+          </cell>
+          <cell r="C15">
+            <v>928907</v>
+          </cell>
+          <cell r="D15">
+            <v>0.6294617808616948</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Caserta</v>
+          </cell>
+          <cell r="C16">
+            <v>907442</v>
+          </cell>
+          <cell r="D16">
+            <v>0.59372871612120959</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Varese</v>
+          </cell>
+          <cell r="C17">
+            <v>881907</v>
+          </cell>
+          <cell r="D17">
+            <v>0.55122026943365832</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Monza e della Brianza</v>
+          </cell>
+          <cell r="C18">
+            <v>879752</v>
+          </cell>
+          <cell r="D18">
+            <v>0.54763281289903243</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Treviso</v>
+          </cell>
+          <cell r="C19">
+            <v>877565</v>
+          </cell>
+          <cell r="D19">
+            <v>0.54399208554811507</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Vicenza</v>
+          </cell>
+          <cell r="C20">
+            <v>854131</v>
+          </cell>
+          <cell r="D20">
+            <v>0.50498120089269793</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Venezia</v>
+          </cell>
+          <cell r="C21">
+            <v>833934</v>
+          </cell>
+          <cell r="D21">
+            <v>0.47135899224776062</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Genova</v>
+          </cell>
+          <cell r="C22">
+            <v>818651</v>
+          </cell>
+          <cell r="D22">
+            <v>0.44591718332957592</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Lecce</v>
+          </cell>
+          <cell r="C23">
+            <v>763778</v>
+          </cell>
+          <cell r="D23">
+            <v>0.35456938638083885</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Modena</v>
+          </cell>
+          <cell r="C24">
+            <v>709149</v>
+          </cell>
+          <cell r="D24">
+            <v>0.26362777940632393</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Cosenza</v>
+          </cell>
+          <cell r="C25">
+            <v>669239</v>
+          </cell>
+          <cell r="D25">
+            <v>0.19718908321285722</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Perugia</v>
+          </cell>
+          <cell r="C26">
+            <v>636531</v>
+          </cell>
+          <cell r="D26">
+            <v>0.14273965011098028</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Como</v>
+          </cell>
+          <cell r="C27">
+            <v>598333</v>
+          </cell>
+          <cell r="D27">
+            <v>7.9150942589105058E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Messina</v>
+          </cell>
+          <cell r="C28">
+            <v>595948</v>
+          </cell>
+          <cell r="D28">
+            <v>7.5180602062384486E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Foggia</v>
+          </cell>
+          <cell r="C29">
+            <v>590304</v>
+          </cell>
+          <cell r="D29">
+            <v>6.5784961838983691E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Cuneo</v>
+          </cell>
+          <cell r="C30">
+            <v>581676</v>
+          </cell>
+          <cell r="D30">
+            <v>5.1421817996407125E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Latina</v>
+          </cell>
+          <cell r="C31">
+            <v>566671</v>
+          </cell>
+          <cell r="D31">
+            <v>2.6442799294754214E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Taranto</v>
+          </cell>
+          <cell r="C32">
+            <v>550046</v>
+          </cell>
+          <cell r="D32">
+            <v>-1.2330544816522896E-3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Trento</v>
+          </cell>
+          <cell r="C33">
+            <v>546709</v>
+          </cell>
+          <cell r="D33">
+            <v>-6.7882017930428768E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Pavia</v>
+          </cell>
+          <cell r="C34">
+            <v>542082</v>
+          </cell>
+          <cell r="D34">
+            <v>-1.4490828886181698E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Bolzano/Bozen</v>
+          </cell>
+          <cell r="C35">
+            <v>539386</v>
+          </cell>
+          <cell r="D35">
+            <v>-1.8978895158734597E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Reggio nell'Emilia</v>
+          </cell>
+          <cell r="C36">
+            <v>531113</v>
+          </cell>
+          <cell r="D36">
+            <v>-3.2751065883078113E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Udine</v>
+          </cell>
+          <cell r="C37">
+            <v>516443</v>
+          </cell>
+          <cell r="D37">
+            <v>-5.7172405726680128E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Reggio di Calabria</v>
+          </cell>
+          <cell r="C38">
+            <v>511935</v>
+          </cell>
+          <cell r="D38">
+            <v>-6.4676931971735199E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Sassari</v>
+          </cell>
+          <cell r="C39">
+            <v>471653</v>
+          </cell>
+          <cell r="D39">
+            <v>-0.13173490140458974</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Frosinone</v>
+          </cell>
+          <cell r="C40">
+            <v>462363</v>
+          </cell>
+          <cell r="D40">
+            <v>-0.14720008525919523</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Ancona</v>
+          </cell>
+          <cell r="C41">
+            <v>461645</v>
+          </cell>
+          <cell r="D41">
+            <v>-0.14839534919973418</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Parma</v>
+          </cell>
+          <cell r="C42">
+            <v>456015</v>
+          </cell>
+          <cell r="D42">
+            <v>-0.15776768344100747</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Pisa</v>
+          </cell>
+          <cell r="C43">
+            <v>418561</v>
+          </cell>
+          <cell r="D43">
+            <v>-0.22011784448410698</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Cagliari</v>
+          </cell>
+          <cell r="C44">
+            <v>417079</v>
+          </cell>
+          <cell r="D44">
+            <v>-0.2225849491636038</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Trapani</v>
+          </cell>
+          <cell r="C45">
+            <v>411396</v>
+          </cell>
+          <cell r="D45">
+            <v>-0.23204551319435976</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Agrigento</v>
+          </cell>
+          <cell r="C46">
+            <v>408059</v>
+          </cell>
+          <cell r="D46">
+            <v>-0.23760066050575035</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Mantova</v>
+          </cell>
+          <cell r="C47">
+            <v>407312</v>
+          </cell>
+          <cell r="D47">
+            <v>-0.2388442011235534</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Alessandria</v>
+          </cell>
+          <cell r="C48">
+            <v>407029</v>
+          </cell>
+          <cell r="D48">
+            <v>-0.23931531490513072</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Avellino</v>
+          </cell>
+          <cell r="C49">
+            <v>394759</v>
+          </cell>
+          <cell r="D49">
+            <v>-0.25974134352687556</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Forlì-Cesena</v>
+          </cell>
+          <cell r="C50">
+            <v>393628</v>
+          </cell>
+          <cell r="D50">
+            <v>-0.26162413394017575</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Ravenna</v>
+          </cell>
+          <cell r="C51">
+            <v>387501</v>
+          </cell>
+          <cell r="D51">
+            <v>-0.27182383054697534</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Siracusa</v>
+          </cell>
+          <cell r="C52">
+            <v>382690</v>
+          </cell>
+          <cell r="D52">
+            <v>-0.27983276483378988</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Lucca</v>
+          </cell>
+          <cell r="C53">
+            <v>380693</v>
+          </cell>
+          <cell r="D53">
+            <v>-0.28315719671297684</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Barletta-Andria-Trani</v>
+          </cell>
+          <cell r="C54">
+            <v>376561</v>
+          </cell>
+          <cell r="D54">
+            <v>-0.29003579086660763</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Brindisi</v>
+          </cell>
+          <cell r="C55">
+            <v>375286</v>
+          </cell>
+          <cell r="D55">
+            <v>-0.29215829995321924</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Chieti</v>
+          </cell>
+          <cell r="C56">
+            <v>370127</v>
+          </cell>
+          <cell r="D56">
+            <v>-0.3007465543672031</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Novara</v>
+          </cell>
+          <cell r="C57">
+            <v>364478</v>
+          </cell>
+          <cell r="D57">
+            <v>-0.31015051815564942</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Cremona</v>
+          </cell>
+          <cell r="C58">
+            <v>353995</v>
+          </cell>
+          <cell r="D58">
+            <v>-0.32760170463011978</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Pesaro e Urbino</v>
+          </cell>
+          <cell r="C59">
+            <v>349798</v>
+          </cell>
+          <cell r="D59">
+            <v>-0.33458850512934252</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Potenza</v>
+          </cell>
+          <cell r="C60">
+            <v>340799</v>
+          </cell>
+          <cell r="D60">
+            <v>-0.34956925749829781</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Rimini</v>
+          </cell>
+          <cell r="C61">
+            <v>340665</v>
+          </cell>
+          <cell r="D61">
+            <v>-0.34979232904151819</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Ferrara</v>
+          </cell>
+          <cell r="C62">
+            <v>339999</v>
+          </cell>
+          <cell r="D62">
+            <v>-0.35090102790558353</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Catanzaro</v>
+          </cell>
+          <cell r="C63">
+            <v>339297</v>
+          </cell>
+          <cell r="D63">
+            <v>-0.35206965643797677</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Lecco</v>
+          </cell>
+          <cell r="C64">
+            <v>333804</v>
+          </cell>
+          <cell r="D64">
+            <v>-0.36121392499700239</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Arezzo</v>
+          </cell>
+          <cell r="C65">
+            <v>333646</v>
+          </cell>
+          <cell r="D65">
+            <v>-0.36147694965244132</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Sud Sardegna</v>
+          </cell>
+          <cell r="C66">
+            <v>329276</v>
+          </cell>
+          <cell r="D66">
+            <v>-0.3687517455022396</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Livorno</v>
+          </cell>
+          <cell r="C67">
+            <v>325431</v>
+          </cell>
+          <cell r="D67">
+            <v>-0.37515256702225663</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Ragusa</v>
+          </cell>
+          <cell r="C68">
+            <v>320976</v>
+          </cell>
+          <cell r="D68">
+            <v>-0.38256886347782904</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Pescara</v>
+          </cell>
+          <cell r="C69">
+            <v>311826</v>
+          </cell>
+          <cell r="D69">
+            <v>-0.3978009875111595</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Pordenone</v>
+          </cell>
+          <cell r="C70">
+            <v>310967</v>
+          </cell>
+          <cell r="D70">
+            <v>-0.39923097598598256</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Viterbo</v>
+          </cell>
+          <cell r="C71">
+            <v>307430</v>
+          </cell>
+          <cell r="D71">
+            <v>-0.40511906589919461</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Macerata</v>
+          </cell>
+          <cell r="C72">
+            <v>302309</v>
+          </cell>
+          <cell r="D72">
+            <v>-0.41364406121883235</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Teramo</v>
+          </cell>
+          <cell r="C73">
+            <v>299796</v>
+          </cell>
+          <cell r="D73">
+            <v>-0.41782748501071865</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Pistoia</v>
+          </cell>
+          <cell r="C74">
+            <v>290036</v>
+          </cell>
+          <cell r="D74">
+            <v>-0.43407508397960448</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Piacenza</v>
+          </cell>
+          <cell r="C75">
+            <v>286743</v>
+          </cell>
+          <cell r="D75">
+            <v>-0.43955698391859438</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>L'Aquila</v>
+          </cell>
+          <cell r="C76">
+            <v>286681</v>
+          </cell>
+          <cell r="D76">
+            <v>-0.439660196125159</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Savona</v>
+          </cell>
+          <cell r="C77">
+            <v>267119</v>
+          </cell>
+          <cell r="D77">
+            <v>-0.47222531200931323</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Prato</v>
+          </cell>
+          <cell r="C78">
+            <v>261094</v>
+          </cell>
+          <cell r="D78">
+            <v>-0.48225520788918386</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Siena</v>
+          </cell>
+          <cell r="C79">
+            <v>259826</v>
+          </cell>
+          <cell r="D79">
+            <v>-0.48436606398473175</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Benevento</v>
+          </cell>
+          <cell r="C80">
+            <v>259648</v>
+          </cell>
+          <cell r="D80">
+            <v>-0.4846623829003528</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Caltanissetta</v>
+          </cell>
+          <cell r="C81">
+            <v>244913</v>
+          </cell>
+          <cell r="D81">
+            <v>-0.5091919290895468</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Lodi</v>
+          </cell>
+          <cell r="C82">
+            <v>230447</v>
+          </cell>
+          <cell r="D82">
+            <v>-0.53327366747929095</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Trieste</v>
+          </cell>
+          <cell r="C83">
+            <v>228049</v>
+          </cell>
+          <cell r="D83">
+            <v>-0.53726564927512988</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Rovigo</v>
+          </cell>
+          <cell r="C84">
+            <v>227052</v>
+          </cell>
+          <cell r="D84">
+            <v>-0.53892536814520975</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Terni</v>
+          </cell>
+          <cell r="C85">
+            <v>215423</v>
+          </cell>
+          <cell r="D85">
+            <v>-0.55828431572811688</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Grosseto</v>
+          </cell>
+          <cell r="C86">
+            <v>215328</v>
+          </cell>
+          <cell r="D86">
+            <v>-0.55844246346398208</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>La Spezia</v>
+          </cell>
+          <cell r="C87">
+            <v>214986</v>
+          </cell>
+          <cell r="D87">
+            <v>-0.55901179531309675</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Campobasso</v>
+          </cell>
+          <cell r="C88">
+            <v>209207</v>
+          </cell>
+          <cell r="D88">
+            <v>-0.56863217179272696</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Imperia</v>
+          </cell>
+          <cell r="C89">
+            <v>209152</v>
+          </cell>
+          <cell r="D89">
+            <v>-0.56872373100822793</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Asti</v>
+          </cell>
+          <cell r="C90">
+            <v>207310</v>
+          </cell>
+          <cell r="D90">
+            <v>-0.57179013237100329</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Ascoli Piceno</v>
+          </cell>
+          <cell r="C91">
+            <v>200400</v>
+          </cell>
+          <cell r="D91">
+            <v>-0.5832932992639337</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Belluno</v>
+          </cell>
+          <cell r="C92">
+            <v>197558</v>
+          </cell>
+          <cell r="D92">
+            <v>-0.58802441363581626</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Nuoro</v>
+          </cell>
+          <cell r="C93">
+            <v>195437</v>
+          </cell>
+          <cell r="D93">
+            <v>-0.59155526992813257</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Matera</v>
+          </cell>
+          <cell r="C94">
+            <v>189098</v>
+          </cell>
+          <cell r="D94">
+            <v>-0.60210788569286278</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Massa-Carrara</v>
+          </cell>
+          <cell r="C95">
+            <v>186759</v>
+          </cell>
+          <cell r="D95">
+            <v>-0.60600164942116441</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Sondrio</v>
+          </cell>
+          <cell r="C96">
+            <v>179051</v>
+          </cell>
+          <cell r="D96">
+            <v>-0.61883325729536243</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Biella</v>
+          </cell>
+          <cell r="C97">
+            <v>168257</v>
+          </cell>
+          <cell r="D97">
+            <v>-0.63680216951566515</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Fermo</v>
+          </cell>
+          <cell r="C98">
+            <v>167100</v>
+          </cell>
+          <cell r="D98">
+            <v>-0.63872824246720206</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Vercelli</v>
+          </cell>
+          <cell r="C99">
+            <v>165878</v>
+          </cell>
+          <cell r="D99">
+            <v>-0.64076252176433102</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Crotone</v>
+          </cell>
+          <cell r="C100">
+            <v>161479</v>
+          </cell>
+          <cell r="D100">
+            <v>-0.64808559429139345</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Verbano-Cusio-Ossola</v>
+          </cell>
+          <cell r="C101">
+            <v>153201</v>
+          </cell>
+          <cell r="D101">
+            <v>-0.66186608858078244</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Enna</v>
+          </cell>
+          <cell r="C102">
+            <v>152387</v>
+          </cell>
+          <cell r="D102">
+            <v>-0.66322116497019568</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Vibo Valentia</v>
+          </cell>
+          <cell r="C103">
+            <v>150197</v>
+          </cell>
+          <cell r="D103">
+            <v>-0.66686688646014036</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Rieti</v>
+          </cell>
+          <cell r="C104">
+            <v>149923</v>
+          </cell>
+          <cell r="D104">
+            <v>-0.66732301782463577</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Oristano</v>
+          </cell>
+          <cell r="C105">
+            <v>147894</v>
+          </cell>
+          <cell r="D105">
+            <v>-0.6707007205201142</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Gorizia</v>
+          </cell>
+          <cell r="C106">
+            <v>138636</v>
+          </cell>
+          <cell r="D106">
+            <v>-0.68611263355842822</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Valle d'Aosta/Vallée d'Aoste</v>
+          </cell>
+          <cell r="C107">
+            <v>122714</v>
+          </cell>
+          <cell r="D107">
+            <v>-0.71261819408943239</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Isernia</v>
+          </cell>
+          <cell r="C108">
+            <v>78759</v>
+          </cell>
+          <cell r="D108">
+            <v>-0.7857906544047375</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7811,7 +12492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250532CA-6ABB-4F87-B2DB-A82D106C6D41}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="126" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="126" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -9263,4 +13944,1667 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319FB69E-D6A5-4BBC-A33C-BD78DD3D40D7}">
+  <dimension ref="A1:F109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="34">
+        <v>4223885</v>
+      </c>
+      <c r="D2">
+        <f>(C2-E$2)/F$2</f>
+        <v>6.1146545221835806</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(C2:C108)</f>
+        <v>550786.70093457948</v>
+      </c>
+      <c r="F2">
+        <f>STDEVP(C2:C108)</f>
+        <v>600704.14211296022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <v>84</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="34">
+        <v>3247623</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">(C3-E$2)/F$2</f>
+        <v>4.4894584704866078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <v>6</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2958410</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.0080018269836994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>42</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2207873</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.7585731192674401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>51</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1266138</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.1908546136359108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33">
+        <v>44</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="34">
+        <v>1218191</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.1110366189882499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <v>5</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1194439</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.0714963555959367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>64</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1115037</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.9393148132468101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>72</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1068563</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.86194894086156404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>110</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1054766</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.83898089547491261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>25</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1020865</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.7825454597531708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>62</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="34">
+        <v>989460</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.73026514770216056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>16</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="34">
+        <v>932704</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.63578269615727467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>96</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="34">
+        <v>928907</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.6294617808616948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>37</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="34">
+        <v>907442</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.59372871612120959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>21</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34">
+        <v>881907</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.55122026943365832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="34">
+        <v>879752</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.54763281289903243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>74</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="34">
+        <v>877565</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.54399208554811507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>92</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="34">
+        <v>854131</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.50498120089269793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>85</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="34">
+        <v>833934</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.47135899224776062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>70</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="34">
+        <v>818651</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.44591718332957592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>61</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="34">
+        <v>763778</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.35456938638083885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>87</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="34">
+        <v>709149</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.26362777940632393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>79</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="34">
+        <v>669239</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.19718908321285722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>69</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="34">
+        <v>636531</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.14273965011098028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>13</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="34">
+        <v>598333</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>7.9150942589105058E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>78</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="34">
+        <v>595948</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>7.5180602062384486E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>19</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="34">
+        <v>590304</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>6.5784961838983691E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>101</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="34">
+        <v>581676</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5.1421817996407125E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>4</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="34">
+        <v>566671</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.6442799294754214E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>86</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="34">
+        <v>550046</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-1.2330544816522896E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="33">
+        <v>109</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="34">
+        <v>546709</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-6.7882017930428768E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="33">
+        <v>38</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="34">
+        <v>542082</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-1.4490828886181698E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="33">
+        <v>48</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="34">
+        <v>539386</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-1.8978895158734597E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="33">
+        <v>71</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="34">
+        <v>531113</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-3.2751065883078113E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="33">
+        <v>40</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="34">
+        <v>516443</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-5.7172405726680128E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="33">
+        <v>60</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="34">
+        <v>511935</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-6.4676931971735199E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="33">
+        <v>10</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="34">
+        <v>471653</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-0.13173490140458974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="33">
+        <v>31</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="34">
+        <v>462363</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>-0.14720008525919523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>53</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="34">
+        <v>461645</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-0.14839534919973418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="33">
+        <v>8</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="34">
+        <v>456015</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-0.15776768344100747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="33">
+        <v>94</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="34">
+        <v>418561</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-0.22011784448410698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="33">
+        <v>66</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="34">
+        <v>417079</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-0.2225849491636038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="33">
+        <v>11</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="34">
+        <v>411396</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-0.23204551319435976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="33">
+        <v>59</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="34">
+        <v>408059</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-0.23760066050575035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="33">
+        <v>75</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="34">
+        <v>407312</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-0.2388442011235534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="33">
+        <v>97</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="34">
+        <v>407029</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-0.23931531490513072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="33">
+        <v>49</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="34">
+        <v>394759</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-0.25974134352687556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="33">
+        <v>98</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="34">
+        <v>393628</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-0.26162413394017575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="33">
+        <v>46</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="34">
+        <v>387501</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-0.27182383054697534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="33">
+        <v>43</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="34">
+        <v>382690</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-0.27983276483378988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>20</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="34">
+        <v>380693</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>-0.28315719671297684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="33">
+        <v>45</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="34">
+        <v>376561</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>-0.29003579086660763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="33">
+        <v>77</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="34">
+        <v>375286</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>-0.29215829995321924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="33">
+        <v>83</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="34">
+        <v>370127</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>-0.3007465543672031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="33">
+        <v>15</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="34">
+        <v>364478</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>-0.31015051815564942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="33">
+        <v>36</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="34">
+        <v>353995</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>-0.32760170463011978</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="33">
+        <v>108</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="34">
+        <v>349798</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>-0.33458850512934252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="33">
+        <v>63</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="34">
+        <v>340799</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>-0.34956925749829781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="33">
+        <v>3</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="34">
+        <v>340665</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>-0.34979232904151819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="33">
+        <v>91</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="34">
+        <v>339999</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>-0.35090102790558353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="33">
+        <v>95</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="34">
+        <v>339297</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-0.35206965643797677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="33">
+        <v>28</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="34">
+        <v>333804</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>-0.36121392499700239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="33">
+        <v>82</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="34">
+        <v>333646</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-0.36147694965244132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="33">
+        <v>34</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="34">
+        <v>329276</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>-0.3687517455022396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="33">
+        <v>18</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="34">
+        <v>325431</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D108" si="1">(C67-E$2)/F$2</f>
+        <v>-0.37515256702225663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>54</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="34">
+        <v>320976</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>-0.38256886347782904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="33">
+        <v>41</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="34">
+        <v>311826</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>-0.3978009875111595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="33">
+        <v>68</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="34">
+        <v>310967</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>-0.39923097598598256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="33">
+        <v>33</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="34">
+        <v>307430</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>-0.40511906589919461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="33">
+        <v>50</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="34">
+        <v>302309</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>-0.41364406121883235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="33">
+        <v>47</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="34">
+        <v>299796</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>-0.41782748501071865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="33">
+        <v>93</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="34">
+        <v>290036</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>-0.43407508397960448</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="33">
+        <v>76</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="34">
+        <v>286743</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>-0.43955698391859438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="33">
+        <v>100</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="34">
+        <v>286681</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>-0.439660196125159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="33">
+        <v>88</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="34">
+        <v>267119</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>-0.47222531200931323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="33">
+        <v>39</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="34">
+        <v>261094</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>-0.48225520788918386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="33">
+        <v>80</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="34">
+        <v>259826</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>-0.48436606398473175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="33">
+        <v>35</v>
+      </c>
+      <c r="B80" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="34">
+        <v>259648</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>-0.4846623829003528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="33">
+        <v>57</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="34">
+        <v>244913</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>-0.5091919290895468</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="33">
+        <v>99</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="34">
+        <v>230447</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>-0.53327366747929095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="33">
+        <v>58</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="34">
+        <v>228049</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>-0.53726564927512988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="33">
+        <v>29</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="34">
+        <v>227052</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>-0.53892536814520975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="33">
+        <v>65</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="34">
+        <v>215423</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>-0.55828431572811688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="33">
+        <v>90</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="34">
+        <v>215328</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>-0.55844246346398208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="33">
+        <v>9</v>
+      </c>
+      <c r="B87" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="34">
+        <v>214986</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>-0.55901179531309675</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="33">
+        <v>52</v>
+      </c>
+      <c r="B88" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="34">
+        <v>209207</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>-0.56863217179272696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="33">
+        <v>89</v>
+      </c>
+      <c r="B89" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="34">
+        <v>209152</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>-0.56872373100822793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="33">
+        <v>14</v>
+      </c>
+      <c r="B90" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="34">
+        <v>207310</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>-0.57179013237100329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="33">
+        <v>111</v>
+      </c>
+      <c r="B91" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="34">
+        <v>200400</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>-0.5832932992639337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="33">
+        <v>73</v>
+      </c>
+      <c r="B92" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="34">
+        <v>197558</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>-0.58802441363581626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="33">
+        <v>67</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="34">
+        <v>195437</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>-0.59155526992813257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="33">
+        <v>55</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="34">
+        <v>189098</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>-0.60210788569286278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="33">
+        <v>1</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="34">
+        <v>186759</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>-0.60600164942116441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="33">
+        <v>81</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="34">
+        <v>179051</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>-0.61883325729536243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="33">
+        <v>22</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="34">
+        <v>168257</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>-0.63680216951566515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="33">
+        <v>26</v>
+      </c>
+      <c r="B98" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="34">
+        <v>167100</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>-0.63872824246720206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="33">
+        <v>32</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="34">
+        <v>165878</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>-0.64076252176433102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="33">
+        <v>30</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="34">
+        <v>161479</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>-0.64808559429139345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="33">
+        <v>7</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="34">
+        <v>153201</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>-0.66186608858078244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="33">
+        <v>12</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="34">
+        <v>152387</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>-0.66322116497019568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="33">
+        <v>27</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" s="34">
+        <v>150197</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>-0.66686688646014036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="33">
+        <v>103</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" s="34">
+        <v>149923</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>-0.66732301782463577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="33">
+        <v>2</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C105" s="34">
+        <v>147894</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>-0.6707007205201142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="33">
+        <v>23</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="34">
+        <v>138636</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>-0.68611263355842822</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="33">
+        <v>102</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" s="34">
+        <v>122714</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>-0.71261819408943239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="33">
+        <v>24</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="34">
+        <v>78759</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>-0.7857906544047375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="33">
+        <v>56</v>
+      </c>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>